--- a/classfiers/greedy/welm/smote/greedy_welm_rbf_smote_results.xlsx
+++ b/classfiers/greedy/welm/smote/greedy_welm_rbf_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5260869565217391</v>
+        <v>0.5178997613365155</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07725321888412018</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="D2" t="n">
-        <v>0.141732283464567</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6867425459908112</v>
+        <v>0.6854574046219062</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5282608695652173</v>
+        <v>0.5178997613365155</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07488986784140969</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1354581673306773</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7012062543721994</v>
+        <v>0.6956799125045571</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5413043478260869</v>
+        <v>0.5560859188544153</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1148936170212766</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2037735849056604</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6629030732860519</v>
+        <v>0.6606782305433186</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5195652173913043</v>
+        <v>0.5202863961813843</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1264822134387352</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0.647750472589792</v>
+        <v>0.6642362376959533</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5391304347826087</v>
+        <v>0.4521531100478469</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1022222222222222</v>
+        <v>0.02575107296137339</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1782945736434109</v>
+        <v>0.04979253112033195</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4821371158392435</v>
+        <v>0.7087576847233499</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5308695652173913</v>
+        <v>0.5128649895513354</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0877648286720666</v>
+        <v>0.04576976898610092</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1571481645566101</v>
+        <v>0.08510192590199692</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6361478924156196</v>
+        <v>0.682961894017817</v>
       </c>
     </row>
   </sheetData>
